--- a/assets/stages/maps/MapEditor/Room8.xlsx
+++ b/assets/stages/maps/MapEditor/Room8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -603,31 +603,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
@@ -666,31 +666,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -701,94 +701,94 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -799,64 +799,64 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>1</v>
@@ -897,34 +897,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-1</v>
@@ -984,10 +984,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1082,10 +1082,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1180,10 +1180,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1471,7 +1471,7 @@
         <v>-1</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1569,13 +1569,13 @@
         <v>-1</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1628,10 +1628,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>-1</v>
@@ -1667,13 +1667,13 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1771,7 +1771,7 @@
         <v>-1</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1869,7 +1869,7 @@
         <v>-1</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1877,94 +1877,94 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF15" s="1" t="n">
         <v>1</v>
@@ -1975,94 +1975,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2073,94 +2073,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2186,79 +2186,79 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF18" s="1" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B14 B5:K5 C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF13 G15:AE18 H7:P14 L3:AF4 Q9:AF9 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD9:AD12 AE7:AF8">
+  <conditionalFormatting sqref="C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF10 G11:AE13 G15:AE18 H7:P14 Q9:AF9 Q11:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD10:AD11">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2291,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2468,6 +2468,9 @@
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2501,6 +2504,9 @@
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2534,6 +2540,9 @@
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2668,12 +2677,8 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -2706,12 +2711,8 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF12" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -2744,12 +2745,8 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF13" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -2764,9 +2761,7 @@
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="P14" s="1" t="n"/>
@@ -2784,12 +2779,8 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
@@ -2804,9 +2795,7 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -2824,9 +2813,7 @@
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE15" s="4" t="n"/>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
@@ -2842,9 +2829,7 @@
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -2862,9 +2847,7 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE16" s="4" t="n"/>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2880,9 +2863,7 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
@@ -2900,9 +2881,7 @@
       <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE17" s="4" t="n"/>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2918,63 +2897,25 @@
       <c r="J18" s="4" t="n"/>
       <c r="K18" s="4" t="n"/>
       <c r="L18" s="4" t="n"/>
-      <c r="M18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="4" t="n"/>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="n"/>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n"/>
+      <c r="AA18" s="4" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AC18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AE18" s="4" t="n"/>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room8.xlsx
+++ b/assets/stages/maps/MapEditor/Room8.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>3</v>
@@ -705,31 +705,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>-1</v>
@@ -803,31 +803,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>-1</v>
@@ -901,31 +901,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-1</v>
@@ -1279,7 +1279,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1472,7 +1472,7 @@
         <v>-1</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
         <v>3</v>
@@ -1570,7 +1570,7 @@
         <v>-1</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
         <v>3</v>
@@ -1629,10 +1629,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>-1</v>
@@ -1668,10 +1668,10 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>1</v>
@@ -1947,25 +1947,25 @@
         <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1" t="n">
         <v>1</v>
@@ -2045,25 +2045,25 @@
         <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2143,25 +2143,25 @@
         <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2241,25 +2241,25 @@
         <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1" t="n">
         <v>1</v>
@@ -2274,7 +2274,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF10 G11:AE13 G15:AE18 H7:P14 K2:K4 L2:V2 Q9:AF9 Q11:AF11 Q13:Y14 S6:AF7 V3:V4 V5:AF5 W4:AE4 Z12:AF14 AA8:AF8 AD10:AD11 AE10:AE12">
+  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room8.xlsx
+++ b/assets/stages/maps/MapEditor/Room8.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2959,4 +2960,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>